--- a/DSAlgoProject/TestData/DataDSAlgo.xlsx
+++ b/DSAlgoProject/TestData/DataDSAlgo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sruja\git\DSAlgo\DSAlgoProject\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chakr\git\DSAlgo\DSAlgoProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C577C-07A4-48D7-BDD9-02D407C6FF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA684A8B-FB1A-4015-A740-816E8A226B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{DF0E23D2-B098-4560-8008-9C03E811C4CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF0E23D2-B098-4560-8008-9C03E811C4CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,28 +37,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Srujana123</t>
   </si>
   <si>
     <t>Password321</t>
+  </si>
+  <si>
+    <t>Srujana124</t>
+  </si>
+  <si>
+    <t>Srujana125</t>
+  </si>
+  <si>
+    <t>Srujana126</t>
+  </si>
+  <si>
+    <t>Srujana127</t>
+  </si>
+  <si>
+    <t>Password322</t>
+  </si>
+  <si>
+    <t>Password323</t>
+  </si>
+  <si>
+    <t>Password324</t>
+  </si>
+  <si>
+    <t>Password325</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -400,11 +424,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26EB2E1-1359-4472-BAAB-EF012D79D450}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -413,18 +435,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DSAlgoProject/TestData/DataDSAlgo.xlsx
+++ b/DSAlgoProject/TestData/DataDSAlgo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chakr\git\DSAlgo\DSAlgoProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA684A8B-FB1A-4015-A740-816E8A226B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494DA3F0-6E15-486E-BBFD-37090B164E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF0E23D2-B098-4560-8008-9C03E811C4CE}"/>
   </bookViews>
@@ -426,16 +426,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26EB2E1-1359-4472-BAAB-EF012D79D450}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -464,10 +466,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
